--- a/biology/Zoologie/Dione_(papillon)/Dione_(papillon).xlsx
+++ b/biology/Zoologie/Dione_(papillon)/Dione_(papillon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dione est un genre de papillons de la famille des Nymphalidae et de la sous-famille des Heliconiinae.
@@ -512,7 +524,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été nommé Dione par Jakob Hübner en 1819.
 </t>
@@ -543,17 +557,19 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dione glycera (C. &amp; R. Felder, 1861)
-Dione juno (Cramer, [1779])
-Dione moneta Hübner, [1825]
-Selon Catalogue of Life                                  (22 juil. 2012)[1] :
+Dione juno (Cramer, )
+Dione moneta Hübner, 
+Selon Catalogue of Life                                  (22 juil. 2012) :
 Dione glycera
 Dione juno
 Dione miraculosa
 Dione moneta
-Selon ITIS      (22 juil. 2012)[2] :
+Selon ITIS      (22 juil. 2012) :
 Dione moneta Hübner, 1825</t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dione miraculosa est donc considéré soit comme une espèce à part entière soit comme une sous-espèce de Dione juno, Dione juno miraculosa Hering, 1926[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dione miraculosa est donc considéré soit comme une espèce à part entière soit comme une sous-espèce de Dione juno, Dione juno miraculosa Hering, 1926,.
 .
 </t>
         </is>
